--- a/biology/Zoologie/Aulacidea_hieracii/Aulacidea_hieracii.xlsx
+++ b/biology/Zoologie/Aulacidea_hieracii/Aulacidea_hieracii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aulacidea hieracii est une espèce d'insectes hyménoptères galligènes de la famille des Cynipidae. Cette espèce européenne est inféodée aux Épervières.
 </t>
@@ -511,10 +523,12 @@
           <t>Description et biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La galle provoquée par Aulacidea hieracii englobe la tige et peut atteindre 3 cm de diamètre, la partie de la plante située au dessus de la galle étant souvent avortée. Elle peut être lisse ou recouverte de poils blancs dressés. Une galle contient plusieurs larves blanches, chacune ayant sa propre loge. A. hieracii hiberne et nymphose à l'intérieur de sa galle[1]. La reproduction sexuée n'a lieu qu'une seule fois par an ; une reproduction par parthénogénèse est également possible, la femelle créant alors une galle aux œufs non fécondés d'où émerge uniquement des mâles (arrhénotoque)[2].
-Les plantes hôtes de la larve d'A. hieracii sont principalement des Hieracium dont Hieracium alpinum, H. inuloides subsp. tridentatifolium, H. lachenalii subsp. cruentifolium, H. laevigatum, H. maculatum, H. murorum, H. racemosum subsp. tenuifolium, H. sabaudum subsp. boreale, H. ubcaesium, H. tomentosum, H. umbellatum et H. virosum ainsi que Schlagintweitia intybacea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La galle provoquée par Aulacidea hieracii englobe la tige et peut atteindre 3 cm de diamètre, la partie de la plante située au dessus de la galle étant souvent avortée. Elle peut être lisse ou recouverte de poils blancs dressés. Une galle contient plusieurs larves blanches, chacune ayant sa propre loge. A. hieracii hiberne et nymphose à l'intérieur de sa galle. La reproduction sexuée n'a lieu qu'une seule fois par an ; une reproduction par parthénogénèse est également possible, la femelle créant alors une galle aux œufs non fécondés d'où émerge uniquement des mâles (arrhénotoque).
+Les plantes hôtes de la larve d'A. hieracii sont principalement des Hieracium dont Hieracium alpinum, H. inuloides subsp. tridentatifolium, H. lachenalii subsp. cruentifolium, H. laevigatum, H. maculatum, H. murorum, H. racemosum subsp. tenuifolium, H. sabaudum subsp. boreale, H. ubcaesium, H. tomentosum, H. umbellatum et H. virosum ainsi que Schlagintweitia intybacea.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Agent de régulation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'instar des nombreux phytopathogènes qui sont également des agents de régulation de leurs plantes hôtes, Aulacidea hieracii limite la diffusion des Épervières. Or, certaines espèces des genres Hieracium et Pilosella, peu problématiques sur leur aire de répartition d'origine, sont devenues des pestes végétales dans les régions où elles ont été importées artificiellement, en particulier dans les écozones australasienne et néarctique. Aulacidea hieracii, ou encore Aulacidea subterminalis et le Syrphidae Cheilosia psilophthalma, sont actuellement étudié afin de connaître leurs capacités de régulation de ces plantes invasives[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'instar des nombreux phytopathogènes qui sont également des agents de régulation de leurs plantes hôtes, Aulacidea hieracii limite la diffusion des Épervières. Or, certaines espèces des genres Hieracium et Pilosella, peu problématiques sur leur aire de répartition d'origine, sont devenues des pestes végétales dans les régions où elles ont été importées artificiellement, en particulier dans les écozones australasienne et néarctique. Aulacidea hieracii, ou encore Aulacidea subterminalis et le Syrphidae Cheilosia psilophthalma, sont actuellement étudié afin de connaître leurs capacités de régulation de ces plantes invasives.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aulacidea hieracii est une espèce présente en Europe et plus précisément en Andorre, en Autriche, Grande-Bretagne, France, Allemagne, Hongrie, Pologne et Suède[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aulacidea hieracii est une espèce présente en Europe et plus précisément en Andorre, en Autriche, Grande-Bretagne, France, Allemagne, Hongrie, Pologne et Suède.
 </t>
         </is>
       </c>
@@ -605,16 +623,18 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon le Muséum national d'histoire naturelle, situé à Paris[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon le Muséum national d'histoire naturelle, situé à Paris :
 Aulacidea cacaliae Belizin, 1959
 Aulacidea hieracii (Bouché, 1834)
 Aulax artemisiae Thomson, 1877
 Aulax crassinervis Thomson, 1877
 Aulax foveiger Thomson, 1877
 Aulax graminis Cameron, 1875
-Aulax pigeoti Kieffer, 1898 (serait plus un synonyme d'A. scorzonerae[1])
+Aulax pigeoti Kieffer, 1898 (serait plus un synonyme d'A. scorzonerae)
 Aulax schlechtendali Rübsaamen, 1896
 Aylax sabaudi Hartig, 1877
 Cynips hieracii Bouché, 1834
